--- a/data/income_statement/2digits/size/77_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/77_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>77-Rental and leasing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>77-Rental and leasing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1317009.28672</v>
+        <v>1258492.63273</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1510423.12518</v>
+        <v>1415945.76332</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2066185.11889</v>
+        <v>1871964.53274</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2542296.06308</v>
+        <v>2285036.46696</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3249078.59735</v>
+        <v>3062565.70618</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4306283.10216</v>
+        <v>3980893.3869</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5306861.03134</v>
+        <v>5309969.06016</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7696122.75501</v>
+        <v>7221347.089219999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10634920.01716</v>
+        <v>10048680.66856</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12156896.01788</v>
+        <v>11095711.0098</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12597729.34238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11389394.69949</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13931165.821</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1265091.6617</v>
+        <v>1214521.50378</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1352043.24029</v>
+        <v>1265587.57775</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1926127.55861</v>
+        <v>1752284.38403</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2352583.1624</v>
+        <v>2126291.00192</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2975737.07721</v>
+        <v>2794121.30842</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3988909.73321</v>
+        <v>3709945.56565</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4740173.68553</v>
+        <v>4763308.77226</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7056081.391840002</v>
+        <v>6620988.7854</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9648883.616329998</v>
+        <v>9135720.6669</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11337110.91624</v>
+        <v>10433207.08707</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11750259.61622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10721933.31639</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13147622.758</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6232.087509999999</v>
+        <v>1349.70865</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4326.87978</v>
+        <v>0</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15227.87357</v>
+        <v>0</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>24768.69266</v>
+        <v>492.50912</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>66272.42509</v>
+        <v>65606.40162</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>21633.47657</v>
+        <v>67.31814</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>109623.05085</v>
+        <v>90246.71217</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>122595.93289</v>
+        <v>98803.20531999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>128054.98611</v>
+        <v>74943.56396</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>427547.2807299999</v>
+        <v>336087.06661</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>420891.72871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>323294.0159</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>189205.974</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>45685.53750999999</v>
+        <v>42621.42030000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>154053.00511</v>
+        <v>150358.18557</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>124829.68671</v>
+        <v>119680.14871</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>164944.20802</v>
+        <v>158252.95592</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>207069.09505</v>
+        <v>202837.99614</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>295739.89238</v>
+        <v>270880.50311</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>457064.29496</v>
+        <v>456413.57573</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>517445.43028</v>
+        <v>501555.0985</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>857981.4147199999</v>
+        <v>838016.4376999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>392237.82091</v>
+        <v>326416.85612</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>426577.99745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>344167.3672</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>594337.089</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8749.732019999999</v>
+        <v>8571.25359</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>14687.22983</v>
+        <v>14309.07099</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>16250.07257</v>
+        <v>15185.56539</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>21845.62673</v>
+        <v>20811.37121</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>19004.40113</v>
+        <v>18157.74859</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37492.85071</v>
+        <v>35818.5364</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>49614.77933999999</v>
+        <v>50453.04007</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>59891.03589</v>
+        <v>56485.06135</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>97582.99833999999</v>
+        <v>93851.68459</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>185843.87242</v>
+        <v>169225.18046</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>191876.63979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>174500.84189</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>262768.54</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7724.45737</v>
+        <v>7672.12661</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14220.43998</v>
+        <v>13845.16224</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>15172.16768</v>
+        <v>14109.82999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>20143.59971</v>
+        <v>19220.37912</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15556.59616</v>
+        <v>14720.41092</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>35012.54456</v>
+        <v>33412.95321</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>46641.54437999999</v>
+        <v>47580.92726</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>57440.15055</v>
+        <v>54416.89018</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>93266.78962</v>
+        <v>89588.6035</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>158655.76978</v>
+        <v>144364.2791</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>163023.71992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>146312.47237</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>180336.696</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>870.1005200000001</v>
+        <v>743.95285</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>419.55642</v>
+        <v>416.67532</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1029.90122</v>
+        <v>1027.73173</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1300.96832</v>
+        <v>1294.6887</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3266.02062</v>
+        <v>3255.55332</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2217.55948</v>
+        <v>2142.89513</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2175.19146</v>
+        <v>2115.05894</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1116.98496</v>
+        <v>745.3802900000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2621.48572</v>
+        <v>2621.12089</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7003.30116</v>
+        <v>5117.36393</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3403.56264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3183.53726</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3082.596</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>155.17413</v>
@@ -1232,130 +1173,145 @@
         <v>48.00367</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>401.0587</v>
+        <v>296.30339</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>181.78435</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>262.74667</v>
+        <v>262.68806</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>798.0435</v>
+        <v>757.05387</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1333.90038</v>
+        <v>1322.79088</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1694.723</v>
+        <v>1641.9602</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>20184.80148</v>
+        <v>19743.53743</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>25449.35723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25004.83226</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>79349.24800000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1308259.5547</v>
+        <v>1249921.37914</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1495735.89535</v>
+        <v>1401636.69233</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2049935.04632</v>
+        <v>1856778.96735</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2520450.43635</v>
+        <v>2264225.09575</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3230074.19622</v>
+        <v>3044407.95759</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4268790.251449999</v>
+        <v>3945074.8505</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5257246.252</v>
+        <v>5259516.02009</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7636231.71912</v>
+        <v>7164862.02787</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10537337.01882</v>
+        <v>9954828.983969999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11971052.14546</v>
+        <v>10926485.82934</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12405852.70259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11214893.8576</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13668397.281</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>920135.56313</v>
+        <v>873072.6052699999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1291946.53317</v>
+        <v>1225001.24948</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1394566.11063</v>
+        <v>1256891.76865</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1974902.84014</v>
+        <v>1778737.65832</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2274743.70354</v>
+        <v>2115043.84558</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3792788.40012</v>
+        <v>3523390.46895</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4069480.08049</v>
+        <v>4081746.218</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6029566.240929999</v>
+        <v>5617936.3685</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8073661.8029</v>
+        <v>7640889.619100001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8549415.366770001</v>
+        <v>7764657.84132</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8735979.617360001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7751071.776670001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11301557.678</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>278.05415</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>912.474</v>
+        <v>156.13029</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>572.2041999999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>13951.67623</v>
+        <v>572.19246</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2983.33239</v>
+        <v>2469.95897</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2151.38684</v>
+        <v>1955.00633</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>482.3162</v>
@@ -1364,214 +1320,244 @@
         <v>792.00973</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3926.82528</v>
+        <v>3468.96231</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>49805.10921</v>
+        <v>38052.2365</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>116793.29808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56376.52127</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>40464.421</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>164128.68113</v>
+        <v>157961.29236</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>216692.14212</v>
+        <v>210782.98385</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>297250.26591</v>
+        <v>276694.76017</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>326532.80722</v>
+        <v>299592.80095</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>371759.38846</v>
+        <v>363542.31619</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>476037.75865</v>
+        <v>460713.38659</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>514049.776</v>
+        <v>440296.43906</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>971156.3930199998</v>
+        <v>871868.5280200001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1359324.18907</v>
+        <v>1324174.80677</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1294158.17232</v>
+        <v>1133128.72443</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1130367.07491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1008929.16973</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1758946.764</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>744343.35366</v>
+        <v>704285.84131</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1036322.47205</v>
+        <v>981244.77399</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1038167.02636</v>
+        <v>928091.0958000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1483719.59147</v>
+        <v>1334430.44096</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1664448.1996</v>
+        <v>1528186.25959</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2872766.35361</v>
+        <v>2640927.54977</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3201920.4166</v>
+        <v>2969453.3153</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4139259.37452</v>
+        <v>3862293.30555</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5695953.20218</v>
+        <v>5338254.83294</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5962201.01746</v>
+        <v>5413941.98584</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6914623.71188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6194932.4078</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8834429.954</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11385.47419</v>
+        <v>10547.41745</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>38019.445</v>
+        <v>32817.36135</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>58576.61416</v>
+        <v>51533.70847999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>150698.76522</v>
+        <v>144142.22395</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>235552.78309</v>
+        <v>220845.31083</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>441832.90102</v>
+        <v>419794.52626</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>353027.57169</v>
+        <v>671514.14744</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>918358.46366</v>
+        <v>882982.5252</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1014457.58637</v>
+        <v>974991.01708</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1243251.06778</v>
+        <v>1179534.89455</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>574195.53249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>490833.67787</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>667716.539</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>388123.99157</v>
+        <v>376848.77387</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>203789.36218</v>
+        <v>176635.44285</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>655368.93569</v>
+        <v>599887.1986999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>545547.59621</v>
+        <v>485487.43743</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>955330.49268</v>
+        <v>929364.11201</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>476001.85133</v>
+        <v>421684.3815499999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1187766.17151</v>
+        <v>1177769.80209</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1606665.47819</v>
+        <v>1546925.65937</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2463675.215919999</v>
+        <v>2313939.36487</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3421636.77869</v>
+        <v>3161827.98802</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3669873.08523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3463822.08093</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2366839.603</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>195740.75925</v>
+        <v>182265.12416</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>213744.58516</v>
+        <v>190420.54119</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>288153.74327</v>
+        <v>245813.77456</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>429417.86304</v>
+        <v>359336.57712</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>454527.1715</v>
+        <v>441573.0323099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>621002.39668</v>
+        <v>573252.13683</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>892658.84501</v>
+        <v>836979.06996</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1154157.13037</v>
+        <v>1112520.35172</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1479956.13198</v>
+        <v>1353548.86521</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1546236.41732</v>
+        <v>1407825.28687</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1568142.05282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1475314.33902</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1648795.334</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,209 +1592,239 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>39869.64378</v>
+        <v>39552.02815999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>59219.81976999999</v>
+        <v>54106.51514</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>68843.94723000001</v>
+        <v>58799.6679</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>113427.08983</v>
+        <v>107814.18424</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>124242.40134</v>
+        <v>123126.12331</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>202130.03376</v>
+        <v>196593.91017</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>281426.58674</v>
+        <v>276999.27338</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>370667.88746</v>
+        <v>386821.92064</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>513142.49532</v>
+        <v>500132.33875</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>555972.02888</v>
+        <v>477438.95134</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>454733.60814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>429696.48612</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>445960.121</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>155871.11547</v>
+        <v>142713.096</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>154524.76539</v>
+        <v>136314.02605</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>219309.79604</v>
+        <v>187014.10666</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>315990.77321</v>
+        <v>251522.39288</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>330284.77016</v>
+        <v>318446.909</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>418872.36292</v>
+        <v>376658.22666</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>611232.25827</v>
+        <v>559979.7965800001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>783489.2429099999</v>
+        <v>725698.4310799999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>966786.1592299999</v>
+        <v>853389.04903</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>990246.35456</v>
+        <v>930368.3016499999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1113408.44468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1045617.8529</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1202835.213</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>192383.23232</v>
+        <v>194583.64971</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-9955.22298</v>
+        <v>-13785.09834</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>367215.19242</v>
+        <v>354073.42414</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>116129.73317</v>
+        <v>126150.86031</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>500803.32118</v>
+        <v>487791.0797</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-145000.54535</v>
+        <v>-151567.75528</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>295107.3265</v>
+        <v>340790.73213</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>452508.34782</v>
+        <v>434405.30765</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>983719.08394</v>
+        <v>960390.49966</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1875400.36137</v>
+        <v>1754002.70115</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2101731.03241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1988507.74191</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>718044.269</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>495532.55243</v>
+        <v>439261.46378</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>431081.60631</v>
+        <v>400709.87551</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>477885.37119</v>
+        <v>428526.09584</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>598691.63449</v>
+        <v>530689.7548700001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>738168.15822</v>
+        <v>675237.12899</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1262864.66525</v>
+        <v>1169110.41282</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1921404.15888</v>
+        <v>1864219.52571</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1568834.55298</v>
+        <v>1509251.86439</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3337817.55933</v>
+        <v>3231526.26424</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8281587.746470001</v>
+        <v>7734635.04745</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5920963.95958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5595546.07393</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4135563.15</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>24133.79209</v>
+        <v>51.78625</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5867.92519</v>
+        <v>111.67659</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>697.1646999999999</v>
+        <v>19.15</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>14509.96724</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>26975.30363</v>
+        <v>2168.55716</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>26989.72161</v>
+        <v>162.95026</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3973.21561</v>
+        <v>124.43881</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12139.6636</v>
+        <v>838.4071</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>16871.63659</v>
+        <v>1266.02318</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5884.313949999999</v>
+        <v>2106.23579</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3796.9415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>104.04162</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>615.31678</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4124.67873</v>
+        <v>114.82598</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1634.88695</v>
@@ -1838,208 +1854,238 @@
         <v>2794.4995</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>18732.7692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3303.47034</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>24.177</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>13315.07934</v>
+        <v>3906.1283</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>10507.63939</v>
+        <v>4208.18926</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15938.60137</v>
+        <v>8984.631009999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>21003.33674</v>
+        <v>13060.48317</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>21087.27143</v>
+        <v>18014.90291</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>34546.90043</v>
+        <v>30545.46159</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>55639.22662</v>
+        <v>51540.46827</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>68766.07448</v>
+        <v>66587.37349</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>103829.07628</v>
+        <v>96299.86044</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>233735.07171</v>
+        <v>162167.8987</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>271691.84893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>182171.75854</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>274609.79</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2925.01419</v>
+        <v>2924.11503</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5880.47792</v>
+        <v>5880.459470000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>6683.722720000001</v>
+        <v>6663.38515</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>9231.475460000001</v>
+        <v>9207.79046</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>10981.20849</v>
+        <v>10944.50863</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>11413.95679</v>
+        <v>11288.80986</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>11590.00836</v>
+        <v>11422.51585</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>18683.85495</v>
+        <v>18508.20221</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>17695.09828</v>
+        <v>17626.25375</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1650.09912</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1591.54152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1587.42152</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1983.192</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5223.285980000001</v>
+        <v>5207.14429</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3560.93594</v>
+        <v>3516.10778</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1244.67856</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2816.52012</v>
+        <v>2736.66393</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>5101.58865</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3666.58283</v>
+        <v>3154.01603</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5802.41625</v>
+        <v>5746.05873</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7892.99937</v>
+        <v>7668.931259999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12651.36827</v>
+        <v>12268.9303</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>12365.49005</v>
+        <v>12042.09601</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>49798.15025999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>48788.14999000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>81815.803</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>211.95246</v>
+        <v>210.68461</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>444.48632</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>900.73112</v>
+        <v>900.37553</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>374.16419</v>
+        <v>137.16003</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>344.43042</v>
+        <v>205.14376</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1222.08528</v>
+        <v>952.30796</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3698.17869</v>
+        <v>3570.67786</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>9843.524589999999</v>
+        <v>9817.15826</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>8462.933070000001</v>
+        <v>8461.252179999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>53121.38931000001</v>
+        <v>35405.47626</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10268.11913</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>9827.256100000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7552.177</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>376486.4224</v>
+        <v>354419.40337</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>314137.74129</v>
+        <v>297161.5524700001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>312241.5112899999</v>
+        <v>273738.43475</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>395944.0868</v>
+        <v>352114.29964</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>489768.56539</v>
+        <v>455906.46597</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>797344.4535699999</v>
+        <v>741546.87595</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1337835.19311</v>
+        <v>1286740.5158</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>757899.58863</v>
+        <v>720933.31799</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2293850.08215</v>
+        <v>2221251.14677</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6735351.366309999</v>
+        <v>6342293.16403</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4650330.53282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4482711.81933</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2049416.311</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,13 +2103,13 @@
         <v>0.9794400000000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>56.25351999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>43.85241000000001</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3.77485</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1777.66909</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,194 +2164,219 @@
       <c r="M34" s="48" t="n">
         <v>5287.28587</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>72621.68919</v>
+        <v>72542.20193000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>90682.40026000001</v>
+        <v>89387.40362000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>140178.96143</v>
+        <v>136975.44084</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>154812.08394</v>
+        <v>153433.35758</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>183908.81077</v>
+        <v>182894.98247</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>387624.7112200001</v>
+        <v>381459.99117</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>502822.06783</v>
+        <v>505074.85039</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>689480.3937799999</v>
+        <v>684783.6481</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>882822.47774</v>
+        <v>872717.91067</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1230350.5309</v>
+        <v>1169840.59242</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>907689.10126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>859987.20153</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1720161.7</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>499978.70138</v>
+        <v>475161.29384</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>327659.8100700001</v>
+        <v>312995.12565</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>671240.4236800001</v>
+        <v>593319.4577200001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>369966.61494</v>
+        <v>337725.55648</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>975901.49078</v>
+        <v>922668.57218</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>783409.4368800001</v>
+        <v>722122.14425</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1844535.57918</v>
+        <v>1795807.47717</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1721585.08204</v>
+        <v>1655901.67706</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3786724.93169</v>
+        <v>3662841.8294</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9778890.92873</v>
+        <v>9289998.05786</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6292579.80449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5597603.04305</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3552183.623</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>458.18189</v>
+        <v>96.70627</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>293.84023</v>
+        <v>115.47018</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5654.60896</v>
+        <v>5474.30725</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10283.61343</v>
+        <v>9651.759390000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2652.40897</v>
+        <v>2588.29491</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2979.04429</v>
+        <v>2683.2362</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6131.82295</v>
+        <v>6482.95919</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8969.375309999999</v>
+        <v>8761.27714</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8446.12191</v>
+        <v>8022.46395</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9684.514300000001</v>
+        <v>5912.93164</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12508.24403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3725.36695</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3384.246</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15414.50864</v>
+        <v>15244.36554</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8070.24012</v>
+        <v>7483.09947</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4829.5338</v>
+        <v>4812.56622</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12363.64901</v>
+        <v>10365.68985</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>11482.85583</v>
+        <v>11292.96429</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>17179.81676</v>
+        <v>15786.88562</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22533.0859</v>
+        <v>20181.7093</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>32677.72971</v>
+        <v>32186.5625</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>42162.75184</v>
+        <v>40033.48818000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>72361.48551</v>
+        <v>69475.92922000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>95661.86324000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>91125.07059</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>112212.782</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>246.359</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>485.51547</v>
+        <v>68.4875</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2051.68384</v>
+        <v>11.29652</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>260.99814</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>268.27927</v>
+        <v>162.34756</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>271.81075</v>
+        <v>258.60227</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2344.64099</v>
+        <v>2310.49101</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>9614.24639</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>29058.18882</v>
+        <v>28952.27246</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>8666.46034</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>541.143</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>402587.2007100001</v>
+        <v>378309.11957</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>242605.59599</v>
+        <v>229840.50153</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>559912.55321</v>
+        <v>488017.25231</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>284992.94911</v>
+        <v>255674.47083</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>882032.2485799999</v>
+        <v>830232.7083200001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>590826.07845</v>
+        <v>535002.57315</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1639710.68773</v>
+        <v>1573776.54634</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1352120.18958</v>
+        <v>1295564.4746</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3339158.29138</v>
+        <v>3232797.08379</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9194388.9527</v>
+        <v>8755369.292610001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5315694.017330001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5142605.98015</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3081536.569</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>43.85241000000001</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>56.25351999999999</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3.77485</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>81272.45114</v>
+        <v>81264.74346</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>76204.61826</v>
+        <v>75487.56697</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>98792.04386999999</v>
+        <v>95004.03542</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>62064.42581</v>
+        <v>61771.65883</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>79465.69812999999</v>
+        <v>78392.25709999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>172108.83422</v>
+        <v>168390.84701</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>173759.08809</v>
+        <v>193055.77133</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>318199.7662</v>
+        <v>309775.1164299999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>367899.57774</v>
+        <v>353036.52102</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>493789.51588</v>
+        <v>450573.44405</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>868715.6798900001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>360146.62536</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>354508.883</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>178342.05697</v>
+        <v>168856.37803</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>176090.8114</v>
+        <v>166630.46374</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>297173.4494</v>
+        <v>265574.0022</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>249607.5709</v>
+        <v>220151.04713</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>364313.60581</v>
+        <v>350160.2822</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>441271.31282</v>
+        <v>396205.10352</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>663970.5335500001</v>
+        <v>582608.7648199999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>790856.36326</v>
+        <v>741718.3229599999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1412428.38986</v>
+        <v>1331485.25824</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1795448.45623</v>
+        <v>1358278.76022</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2295638.10412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1932054.21131</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2078925.857</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>170656.56416</v>
+        <v>162427.36804</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>161669.16295</v>
+        <v>152578.1976</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>262944.12334</v>
+        <v>246237.25837</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>213306.90312</v>
+        <v>194304.4018</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>317360.22741</v>
+        <v>303842.05051</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>391113.21505</v>
+        <v>352476.61108</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>593716.34005</v>
+        <v>527446.12537</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>718214.1779000001</v>
+        <v>671806.02299</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1305017.86527</v>
+        <v>1224554.68221</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1451373.77252</v>
+        <v>1161460.51919</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2029217.00613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1715322.87416</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1854489.099</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7685.49281</v>
+        <v>6429.00999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14421.64845</v>
+        <v>14052.26614</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>34229.32606</v>
+        <v>19336.74383</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>36300.66778</v>
+        <v>25846.64533</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>46953.3784</v>
+        <v>46318.23169</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>50158.09777</v>
+        <v>43728.49243999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>70254.19349999999</v>
+        <v>55162.63945</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>72642.18536</v>
+        <v>69912.29996999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>107410.52459</v>
+        <v>106930.57603</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>344074.68371</v>
+        <v>196818.24103</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>266421.09799</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>216731.33715</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>224436.758</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9595.026400000001</v>
+        <v>-10172.55838</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-82624.23814</v>
+        <v>-92700.81221999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-123313.30947</v>
+        <v>-76293.93994000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>95247.18182</v>
+        <v>98964.01156999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-101243.61719</v>
+        <v>-109800.64569</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-106816.6298</v>
+        <v>-100784.59023</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-291994.62735</v>
+        <v>-173405.98415</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-491098.5445</v>
+        <v>-453962.8279799999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-877616.67828</v>
+        <v>-802410.32374</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1417351.27712</v>
+        <v>-1159639.06948</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-565522.91662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>54396.56148000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-777502.061</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>47445.84381000001</v>
+        <v>43930.48155</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>63896.08231000001</v>
+        <v>59172.01707</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>145695.56745</v>
+        <v>134139.65066</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>140372.02578</v>
+        <v>116651.49255</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>243716.94723</v>
+        <v>231408.66961</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>337860.01587</v>
+        <v>287613.99596</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>365099.06915</v>
+        <v>282579.47369</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>435994.93022</v>
+        <v>384443.29268</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>723782.5257900001</v>
+        <v>667362.16244</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>861175.15613</v>
+        <v>776235.7521599999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>764035.7087499999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>567000.32703</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1035959.616</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1039.69734</v>
@@ -2672,124 +2798,139 @@
         <v>456.91251</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>23287.64359</v>
+        <v>23250.80329</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>711.8872</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>814.35644</v>
+        <v>813.6395500000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2349.40168</v>
+        <v>2332.26102</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1872.96792</v>
+        <v>1753.87805</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>18706.71707</v>
+        <v>1995.13375</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4507.844720000001</v>
+        <v>3515.70609</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3743.4533</v>
+        <v>2634.59835</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4259.724899999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4171.83608</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>15429.088</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>46406.14647</v>
+        <v>42890.78420999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>63439.1698</v>
+        <v>58715.10456</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>122407.92386</v>
+        <v>110888.84737</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>139660.13858</v>
+        <v>115939.60535</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>242902.59079</v>
+        <v>230595.03006</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>335510.61419</v>
+        <v>285281.73494</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>363226.10123</v>
+        <v>280825.59564</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>417288.21315</v>
+        <v>382448.15893</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>719274.68107</v>
+        <v>663846.45635</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>857431.70283</v>
+        <v>773601.15381</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>759775.9838500001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>562828.4909499999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1020530.528</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>46463.83015</v>
+        <v>44848.64254000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>67282.93313999999</v>
+        <v>65972.57249999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>86955.49979</v>
+        <v>63068.66185</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>43766.99586</v>
+        <v>24345.71476</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>48885.9374</v>
+        <v>45299.44701</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>72486.76042999999</v>
+        <v>57586.94657</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>58064.43513000001</v>
+        <v>45560.53669000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>68849.87102000001</v>
+        <v>60053.96092</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>182465.77708</v>
+        <v>164691.86617</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>301875.56768</v>
+        <v>282436.85314</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>336438.5658600001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>271182.9756</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>101626.601</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>21.92754</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4463.46164</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>0</v>
@@ -2798,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7012.73288</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6270.34218</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>149.936</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>77.63915</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>18.73416</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>160.022</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2065.64165</v>
+        <v>1991.50244</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>354.32586</v>
+        <v>308.43429</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>433.26983</v>
+        <v>209.40954</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>717.31487</v>
+        <v>626.4430699999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>757.30494</v>
+        <v>722.2972900000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1666.96356</v>
+        <v>695.78253</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2112.56443</v>
+        <v>1795.79236</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5013.671790000001</v>
+        <v>2581.88027</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5128.38879</v>
+        <v>4468.339559999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2785.51517</v>
+        <v>2585.62522</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3874.19226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1050.5703</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8837.861999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>44376.26096</v>
+        <v>42857.1401</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>66928.60728</v>
+        <v>65664.13821</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>82058.76831999999</v>
+        <v>62859.25231</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>43049.68098999999</v>
+        <v>23719.27169</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48128.63246</v>
+        <v>44577.14972</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>63807.06399</v>
+        <v>56891.16404</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>55944.7257</v>
+        <v>43764.74433</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>57565.85705</v>
+        <v>57472.08065</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>177187.45229</v>
+        <v>160223.52661</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>299012.4133599999</v>
+        <v>279773.58877</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>332545.63944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>270113.67114</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>92628.717</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10577.04006</v>
+        <v>-11090.71937</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-86011.08897</v>
+        <v>-99501.36765</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-64573.24180999999</v>
+        <v>-5222.951129999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>191852.21174</v>
+        <v>191269.78936</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>93587.39263999999</v>
+        <v>76308.57691</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>158556.62564</v>
+        <v>129242.45916</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>15040.00667</v>
+        <v>63612.95284999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-123953.4853</v>
+        <v>-129573.49622</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-336299.92957</v>
+        <v>-299740.02747</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-858051.6886699999</v>
+        <v>-665840.1704600001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-137925.77373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>350213.91291</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>156830.954</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3201.21258</v>
+        <v>1603.17361</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3800.92129</v>
+        <v>1769.32274</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12845.98853</v>
+        <v>9393.58698</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9567.413060000001</v>
+        <v>6722.47003</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15089.85288</v>
+        <v>10734.98778</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14235.12469</v>
+        <v>12769.20054</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35954.09544</v>
+        <v>34089.98005</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>23982.1692</v>
+        <v>22589.00238</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>32341.84912</v>
+        <v>31433.02123</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>48626.22890000001</v>
+        <v>31695.93254</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>120943.5055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>95168.33639</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>85751.467</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7375.827479999999</v>
+        <v>-12693.89298</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-89812.01026</v>
+        <v>-101270.69039</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-77419.23034000001</v>
+        <v>-14616.53811</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>182284.79868</v>
+        <v>184547.31933</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>78497.53975999999</v>
+        <v>65573.58912999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>144321.50095</v>
+        <v>116473.25862</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-20914.08877</v>
+        <v>29522.9728</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-147935.6545</v>
+        <v>-152162.4986</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-368641.7786900001</v>
+        <v>-331173.0487</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-906677.91757</v>
+        <v>-697536.103</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-258869.27923</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>255045.57652</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>71079.48699999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>36</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>58</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>72</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>91</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>32</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>